--- a/Datos/Database by set/Set with text box/Xlsx sets/Champs and States (PCMP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Champs and States (PCMP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,462 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blood Knight</t>
+          <t>('Blood Knight', ['{R}{R}', 'Creature — Human Knight', 'First strike, protection from white', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{R}{R}</t>
+          <t>('Bramblewood Paragon', ['{1}{G}', 'Creature — Elf Warrior', 'Each other Warrior creature you control enters the battlefield with an additional +1/+1 counter on it.', 'Each creature you control with a +1/+1 counter on it has trample.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Knight</t>
+          <t>('Doran, the Siege Tower', ['{W}{B}{G}', 'Legendary Creature — Treefolk Shaman', 'Each creature assigns combat damage equal to its toughness rather than its power.', '0/5'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>First strike, protection from white</t>
+          <t>('Electrolyze', ['{1}{U}{R}', 'Instant', 'Electrolyze deals 2 damage divided as you choose among one or two targets.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Groundbreaker', ['{G}{G}{G}', 'Creature — Elemental', 'Trample, haste', 'At the beginning of the end step, sacrifice Groundbreaker.', '6/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bramblewood Paragon</t>
+          <t>('Imperious Perfect', ['{2}{G}', 'Creature — Elf Warrior', 'Other Elves you control get +1/+1.', '{G}, {T}: Create a 1/1 green Elf Warrior creature token.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{G}</t>
+          <t>('Mutavault', ['Land', '{T}: Add {C}.', '{1}: Mutavault becomes a 2/2 creature with all creature types until end of turn. It’s still a land.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Creature — Elf Warrior</t>
+          <t>('Niv-Mizzet, the Firemind', ['{2}{U}{U}{R}{R}', 'Legendary Creature — Dragon Wizard', 'Flying', 'Whenever you draw a card, Niv-Mizzet, the Firemind deals 1 damage to any target.', '{T}: Draw a card.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Each other Warrior creature you control enters the battlefield with an additional +1/+1 counter on it.</t>
+          <t>('Rakdos Guildmage', ['{B/R}{B/R}', 'Creature — Zombie Shaman', '({B/R} can be paid with either {B} or {R}.)', '{3}{B}, Discard a card: Target creature gets -2/-2 until end of turn.', '{3}{R}: Create a 2/1 red Goblin creature token with haste. Exile it at the beginning of the next end step.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Each creature you control with a +1/+1 counter on it has trample.</t>
+          <t>('Serra Avenger', ['{W}{W}', 'Creature — Angel', 'You can’t cast this spell during your first, second, or third turns of the game.', 'Flying', 'Vigilance (Attacking doesn’t cause this creature to tap.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>("Urza's Factory", ['Land — Urza’s', '{T}: Add {C}.', '{7}, {T}: Create a 2/2 colorless Assembly-Worker artifact creature token.'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Doran, the Siege Tower</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{W}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Treefolk Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Each creature assigns combat damage equal to its toughness rather than its power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>0/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Electrolyze</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Electrolyze deals 2 damage divided as you choose among one or two targets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Groundbreaker</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{G}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>At the beginning of the end step, sacrifice Groundbreaker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>6/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Imperious Perfect</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Other Elves you control get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{G}, {T}: Create a 1/1 green Elf Warrior creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mutavault</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{1}: Mutavault becomes a 2/2 creature with all creature types until end of turn. It’s still a land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Niv-Mizzet, the Firemind</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Dragon Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Whenever you draw a card, Niv-Mizzet, the Firemind deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{T}: Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Rakdos Guildmage</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{B/R}{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Creature — Zombie Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>({B/R} can be paid with either {B} or {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{3}{B}, Discard a card: Target creature gets -2/-2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{3}{R}: Create a 2/1 red Goblin creature token with haste. Exile it at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Serra Avenger</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>You can’t cast this spell during your first, second, or third turns of the game.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Vigilance (Attacking doesn’t cause this creature to tap.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Urza's Factory</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Land — Urza’s</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{7}, {T}: Create a 2/2 colorless Assembly-Worker artifact creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Voidslime</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>{G}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Counter target spell, activated ability, or triggered ability. (Mana abilities can’t be targeted.)</t>
+          <t>('Voidslime', ['{G}{U}{U}', 'Instant', 'Counter target spell, activated ability, or triggered ability. (Mana abilities can’t be targeted.)'])</t>
         </is>
       </c>
     </row>
